--- a/tplive/documents/TPLiVE 2.0.xlsx
+++ b/tplive/documents/TPLiVE 2.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1-MyData\4-Projects\28-WebPicker\WebPicker-Local\tplive\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1-Manu\WebPicker-Github\WebPicker\tplive\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04976CD9-1B17-4125-8930-6000DE09A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Mgmt" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Coach" sheetId="6" r:id="rId6"/>
     <sheet name="Sponsor" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -172,22 +171,22 @@
     <t>Action</t>
   </si>
   <si>
-    <t>1. Organization will be created with unique  Org ID 
-2. Organization will be in queue for Admin approval
-3. If the Organization is in approval state so Organizer won't be able to create another event. 
-4. Organizer can create another  Organization only when the current Organization will be approved or rejected</t>
-  </si>
-  <si>
     <t>1. Event will be created with unique  Event ID 
 2. Event will be in queue for Admin approval
 3. If the event is in approval state so Organizer won't be able to create another event. 
 4. Organizer can create another event only when the current event will be approved or rejected</t>
   </si>
+  <si>
+    <t>1. Organization will be created with unique  Org ID 
+2. Organization will be in queue for Admin approval
+3. If the Organization is in approval state so Organizer won't be able to create another organization. 
+4. Organizer can create another  Organization only when the current Organization will be approved or rejected</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,28 +500,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -545,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -571,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -597,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -623,7 +622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -649,7 +648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -675,7 +674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -707,38 +706,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BFD8E0-262C-4989-87E7-AF75B34C726B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E68952A-EE40-4638-922B-C5DDB62CFA8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -746,7 +745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
@@ -760,7 +759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
@@ -771,7 +770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
@@ -785,7 +784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
@@ -793,17 +792,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
@@ -811,7 +810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" ht="144" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
@@ -822,10 +821,10 @@
         <v>44</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
@@ -833,7 +832,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -841,7 +840,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -850,50 +849,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF18943-BF1F-410D-A114-B06546CD95E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E689239F-483C-4D09-823C-2F4943E7D8F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716EAF2-C8D0-493A-A96E-5105F6552F26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643BA8A2-5C50-46E5-8E66-455527CAF037}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tplive/documents/TPLiVE 2.0.xlsx
+++ b/tplive/documents/TPLiVE 2.0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Create Profile</t>
   </si>
@@ -177,18 +177,135 @@
 4. Organizer can create another event only when the current event will be approved or rejected</t>
   </si>
   <si>
-    <t>1. Organization will be created with unique  Org ID 
-2. Organization will be in queue for Admin approval
-3. If the Organization is in approval state so Organizer won't be able to create another organization. 
-4. Organizer can create another  Organization only when the current Organization will be approved or rejected</t>
+    <t>done</t>
+  </si>
+  <si>
+    <t>File Name - HTML</t>
+  </si>
+  <si>
+    <t>File Name - JS</t>
+  </si>
+  <si>
+    <t>File Name : Functions</t>
+  </si>
+  <si>
+    <t>Collection Name</t>
+  </si>
+  <si>
+    <t>admin/organizationList.html</t>
+  </si>
+  <si>
+    <t>admin/organizationUpdate.html</t>
+  </si>
+  <si>
+    <t>js/organizationList.js</t>
+  </si>
+  <si>
+    <t>js/organizationUpdate.js</t>
+  </si>
+  <si>
+    <t>fnOrganization.js</t>
+  </si>
+  <si>
+    <t>OrganizationList</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Organization will be created with unique  Org ID  - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Organization will be in queue for Admin approval - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. If the Organization is in approval state so Organizer won't be able to create another organization. - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Organizer can create another  Organization only when the current Organization will be approved or rejected - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>done</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -501,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H10"/>
+  <dimension ref="A3:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,12 +633,12 @@
     <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -544,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -570,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -595,8 +712,11 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -622,7 +742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -648,7 +768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -674,7 +794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -719,10 +839,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G16"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,10 +857,27 @@
     <col min="5" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="8" max="8" width="15.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -745,7 +885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
@@ -759,7 +899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
@@ -770,7 +910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
@@ -784,7 +924,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
@@ -792,17 +932,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
@@ -810,7 +950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="144" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
@@ -824,15 +964,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -840,11 +992,21 @@
         <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
